--- a/frontend/mfi.xlsx
+++ b/frontend/mfi.xlsx
@@ -478,7 +478,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Go Live</t>
+          <t>Not Started</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
